--- a/ola_electric/deep_learning/excel/Numerical Examples.xlsx
+++ b/ola_electric/deep_learning/excel/Numerical Examples.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunnvantsaini/Library/CloudStorage/OneDrive-Personal/consulting/dono/idma_ft_public/DL/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93c4ddfd9869a0cf/Work/Vired/Content/corp_trainings/ola_electric/deep_learning/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9139E55-D9E4-E545-AC4B-31D80C36087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{A9139E55-D9E4-E545-AC4B-31D80C36087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C5FC156-6BA6-234B-8138-6684CF5EA78F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15540" activeTab="1" xr2:uid="{B8CF9BDF-FED4-BD4F-A90E-3C7984C95CAB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="15440" activeTab="1" xr2:uid="{B8CF9BDF-FED4-BD4F-A90E-3C7984C95CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier" sheetId="3" r:id="rId1"/>
-    <sheet name="RNN" sheetId="4" r:id="rId2"/>
-    <sheet name="Regression" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="RNN" sheetId="4" r:id="rId3"/>
+    <sheet name="Regression" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
   <si>
     <t>f(z)</t>
   </si>
@@ -262,6 +263,30 @@
   <si>
     <t>s4</t>
   </si>
+  <si>
+    <t>ACTUAL</t>
+  </si>
+  <si>
+    <t>p(0)</t>
+  </si>
+  <si>
+    <t>p(1)</t>
+  </si>
+  <si>
+    <t>p(2)</t>
+  </si>
+  <si>
+    <t>p(3)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>p(4)</t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +366,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -418,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -501,6 +532,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2396,8 +2429,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>146827</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2569,7 +2602,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5487,10 +5520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557BF29-27DE-A84E-AD91-D7CC169E9269}">
-  <dimension ref="B24:U52"/>
+  <dimension ref="B24:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScale="178" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A32" zoomScale="178" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5508,7 +5541,7 @@
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="O24" s="2" t="s">
         <v>12</v>
       </c>
@@ -5516,13 +5549,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="P25" s="2">
         <f>P24+O26*K32</f>
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="O26" s="3">
         <v>1</v>
       </c>
@@ -5531,7 +5564,7 @@
         <v>0.99998329857815205</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
@@ -5545,7 +5578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
         <v>10</v>
       </c>
@@ -5572,7 +5605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="17">
         <v>10</v>
       </c>
@@ -5610,8 +5643,12 @@
       <c r="U29" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W29" s="1">
+        <f>T29/(T29+T40)</f>
+        <v>0.81757447619364365</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30" s="13">
         <v>30</v>
       </c>
@@ -5634,7 +5671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B31" s="13">
         <v>18</v>
       </c>
@@ -5653,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32" s="13">
         <v>3</v>
       </c>
@@ -5734,6 +5771,9 @@
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C39" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="O39" s="2" t="s">
         <v>12</v>
       </c>
@@ -5802,17 +5842,17 @@
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H41" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I41" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J41" s="1" t="e">
-        <f>D41*LOG(G41)*-1</f>
-        <v>#NUM!</v>
+        <v>0.1</v>
+      </c>
+      <c r="J41" s="1">
+        <f>-1*LOG(G41)</f>
+        <v>4.5757490560675115E-2</v>
       </c>
       <c r="O41" s="3">
         <v>1</v>
@@ -5842,6 +5882,19 @@
       <c r="F42" s="18">
         <v>0</v>
       </c>
+      <c r="G42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="1">
+        <f>-LOG(G42)</f>
+        <v>0.69897000433601875</v>
+      </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="13" t="s">
@@ -5855,6 +5908,19 @@
       </c>
       <c r="F43" s="18">
         <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J43" s="1">
+        <f>-LOG(H43)</f>
+        <v>0.3010299956639812</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
@@ -5905,10 +5971,485 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3DD2F6-1D0C-7744-91B3-22A51E833953}">
+  <dimension ref="A1:AH14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAAE5B2-36E2-3640-B0A9-775ABDD0DD1A}">
   <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
@@ -9239,6 +9780,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="E51:F51"/>
@@ -9249,33 +9805,18 @@
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="L71:M71"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F3301-0575-2B4D-9771-D8CCAF368F1A}">
   <dimension ref="A3:R34"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="G1" zoomScale="243" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
